--- a/Supplemental File 3_GSEA-KEGG.xlsx
+++ b/Supplemental File 3_GSEA-KEGG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buckeyemailosu-my.sharepoint.com/personal/gschwend_2_osu_edu/Documents/Collaborations/Rachel's Manuscripts/Waterlogging research manuscript/Fronteirs in Plant Science/Reviewer Edits/New Supplemental Files for Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{828A0A6E-B887-4A3D-BAA9-A5D5CDB29B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6202A365-61CA-4BDC-BA0F-7101AC713BB2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C52C2EE-50CE-402A-9C29-696A89ECF4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{9FDC30A3-15C1-42A5-9A54-16EFDA7246BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9FDC30A3-15C1-42A5-9A54-16EFDA7246BE}"/>
   </bookViews>
   <sheets>
     <sheet name="7 Days WL - MN106 - roots" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="515">
   <si>
     <t>ID</t>
   </si>
@@ -1589,9 +1589,6 @@
   </si>
   <si>
     <t>MN106 waterlogged compared to SP32 control - roots</t>
-  </si>
-  <si>
-    <t>NES</t>
   </si>
   <si>
     <t>tags=27%, list=0%, signal=27%</t>
@@ -1706,10 +1703,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2015,7 +2008,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4537,14 +4530,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4567,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -7760,7 +7753,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8642,7 +8635,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -8695,10 +8688,10 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
+        <v>509</v>
+      </c>
+      <c r="L3" t="s">
         <v>510</v>
-      </c>
-      <c r="L3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -8733,10 +8726,10 @@
         <v>926</v>
       </c>
       <c r="K4" t="s">
+        <v>511</v>
+      </c>
+      <c r="L4" t="s">
         <v>512</v>
-      </c>
-      <c r="L4" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>
